--- a/Kaique/Documentação/Documento de Atividades em Aula.xlsx
+++ b/Kaique/Documentação/Documento de Atividades em Aula.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaique.jcovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaique.jcovo\Documents\GitHub\projetofinal\Kaique\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="OUTUBRO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -46,18 +47,9 @@
     <t>Analise de requisitos funcionais e não funcionais, proposta comercial e documento de visão</t>
   </si>
   <si>
-    <t>Mapa do site</t>
-  </si>
-  <si>
-    <t>Cartela de cores</t>
-  </si>
-  <si>
     <t>Como fazer um site responsivo/ Desenvolvimento SisSO</t>
   </si>
   <si>
-    <t>Inicio de desenvolvimento do layout</t>
-  </si>
-  <si>
     <t>Como clonar e controlar um projeto pelo Github</t>
   </si>
   <si>
@@ -67,9 +59,6 @@
     <t>Visita S2IT</t>
   </si>
   <si>
-    <t>Escolha de Layout</t>
-  </si>
-  <si>
     <t>Estudo sobre tecnologia usada e layout</t>
   </si>
   <si>
@@ -86,6 +75,18 @@
   </si>
   <si>
     <t>Troca de Layout/Estudo - MUDOU TUDO</t>
+  </si>
+  <si>
+    <t>Mapa do site/Escolha do Layout</t>
+  </si>
+  <si>
+    <t>Cartela de cores/Inicio de desenvolvimento do layout</t>
+  </si>
+  <si>
+    <t>FALTAS - 13/09 19/09 01/10</t>
+  </si>
+  <si>
+    <t>Desenvolvimento Página Casamento/Paróquia</t>
   </si>
 </sst>
 </file>
@@ -136,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -260,11 +261,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,11 +308,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,10 +601,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -599,16 +614,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="9">
         <v>43347</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -625,7 +640,7 @@
         <v>43349</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
@@ -649,36 +664,36 @@
         <v>43355</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2">
-        <v>43356</v>
+        <v>43360</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2">
-        <v>43360</v>
+        <v>43361</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2">
-        <v>43361</v>
+        <v>43363</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2">
-        <v>43362</v>
+        <v>43368</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -686,34 +701,18 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
-        <v>43363</v>
+        <v>43369</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="2">
-        <v>43368</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="2">
-        <v>43369</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="7">
         <v>43370</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>19</v>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -729,10 +728,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -741,10 +740,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -768,7 +767,7 @@
         <v>43377</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
@@ -808,7 +807,7 @@
         <v>43388</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -816,7 +815,7 @@
         <v>43389</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -824,7 +823,7 @@
         <v>43390</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -832,7 +831,7 @@
         <v>43395</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
@@ -840,7 +839,7 @@
         <v>43396</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
@@ -848,7 +847,20 @@
         <v>43397</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="5">
+        <v>43398</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
